--- a/LearningWithExpertKnowledge/run/dag7.xlsx
+++ b/LearningWithExpertKnowledge/run/dag7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -531,7 +531,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>FL_ZKL</t>
+          <t>JX_OUT</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ZJ_D</t>
+          <t>JX_IN</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ZJ_U</t>
+          <t>FL_ZKL</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>JX_OUT</t>
+          <t>ZJ_D</t>
         </is>
       </c>
     </row>
@@ -591,7 +591,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>JX_IN</t>
+          <t>ZJ_U</t>
         </is>
       </c>
     </row>
@@ -636,7 +636,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>D15</t>
         </is>
       </c>
     </row>
@@ -646,12 +646,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>D15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>D15</t>
+          <t>ZX_IN</t>
         </is>
       </c>
     </row>
@@ -661,12 +661,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>D15</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>ZJ_D</t>
         </is>
       </c>
     </row>
@@ -696,7 +696,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>D15</t>
+          <t>D8</t>
         </is>
       </c>
     </row>
@@ -706,12 +706,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>H2</t>
+          <t>H1</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>D15</t>
         </is>
       </c>
     </row>
@@ -726,7 +726,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>D15</t>
+          <t>T2</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>T2</t>
+          <t>θ</t>
         </is>
       </c>
     </row>
@@ -751,12 +751,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>SR2</t>
+          <t>D14</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>θ</t>
+          <t>ZX_IN</t>
         </is>
       </c>
     </row>
@@ -766,12 +766,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>D17</t>
+          <t>D14</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>ZX_OUT</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>D15</t>
+          <t>ZJ_U</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>ZJ_D</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>FL_ZKL</t>
         </is>
       </c>
     </row>
@@ -826,7 +826,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>D14</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>D13</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>ZX_IN</t>
         </is>
       </c>
     </row>
@@ -861,7 +861,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ZX_IN</t>
+          <t>ZX_OUT</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ZX_OUT</t>
+          <t>ZJ_U</t>
         </is>
       </c>
     </row>
@@ -891,7 +891,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ZJ_D</t>
+          <t>FL_ZKL</t>
         </is>
       </c>
     </row>
@@ -906,7 +906,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>ZJ_U</t>
+          <t>θ</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>D15</t>
+          <t>D8</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>θ</t>
+          <t>D15</t>
         </is>
       </c>
     </row>
@@ -946,12 +946,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>D13</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>FL_ZKL</t>
+          <t>ZX_OUT</t>
         </is>
       </c>
     </row>
@@ -961,12 +961,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>D13</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>D8</t>
+          <t>ZJ_D</t>
         </is>
       </c>
     </row>
@@ -976,12 +976,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>D13</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>ZJ_U</t>
         </is>
       </c>
     </row>
@@ -991,12 +991,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>D13</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>FL_ZKL</t>
         </is>
       </c>
     </row>
@@ -1006,12 +1006,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ZX_IN</t>
+          <t>D8</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1021,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>D11</t>
+          <t>D12</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ZX_OUT</t>
+          <t>D15</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ZJ_D</t>
+          <t>ZJ_U</t>
         </is>
       </c>
     </row>
@@ -1056,7 +1056,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ZJ_U</t>
+          <t>ZJ_D</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>FL_ZKL</t>
+          <t>ZX_IN</t>
         </is>
       </c>
     </row>
@@ -1081,12 +1081,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>D11</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>θ</t>
+          <t>ZX_OUT</t>
         </is>
       </c>
     </row>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>D9</t>
+          <t>D10</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1111,12 +1111,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>D7</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>D12</t>
+          <t>θ</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>D3</t>
+          <t>D9</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1146,7 +1146,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>D10</t>
+          <t>D8</t>
         </is>
       </c>
     </row>
@@ -1177,21 +1177,6 @@
       <c r="C50" t="inlineStr">
         <is>
           <t>θ</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>D1</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>D12</t>
         </is>
       </c>
     </row>
